--- a/p5/2/order_products_prior_product_id_count_top15.xlsx
+++ b/p5/2/order_products_prior_product_id_count_top15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="order_products_prior_product_id" sheetId="1" r:id="rId1"/>
@@ -1154,9 +1154,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1657,7 +1670,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -2130,5 +2143,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>